--- a/NL_bus_input2.xlsx
+++ b/NL_bus_input2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\304723\Documents\GitHub\CBC_RD_thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08320B8-88A1-4FEC-BBB6-5451A7AEB94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461D1285-F580-44D0-B84A-90012FE1A619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{4D1B5A0D-1CEB-45D9-8796-95763D14CA6B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="2" xr2:uid="{4D1B5A0D-1CEB-45D9-8796-95763D14CA6B}"/>
   </bookViews>
   <sheets>
     <sheet name="title_page" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>Info &amp; case description</t>
   </si>
@@ -208,31 +208,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -639,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A94CD40-7FC0-47C6-AA2A-34706E0CB1A0}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -888,10 +868,10 @@
         <v>13</v>
       </c>
       <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
         <v>11</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -909,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F09800-6293-4D04-974E-A2660D60FC26}">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11:K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1023,13 +1003,13 @@
         <v>0.5</v>
       </c>
       <c r="H2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I2">
         <v>0.7</v>
       </c>
       <c r="J2">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K2">
         <v>0.7</v>
@@ -1103,13 +1083,13 @@
         <v>0.5</v>
       </c>
       <c r="H3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I3">
         <v>0.6</v>
       </c>
       <c r="J3">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="K3">
         <v>0.7</v>
@@ -1189,7 +1169,7 @@
         <v>1.2</v>
       </c>
       <c r="J4">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="K4">
         <v>1.3</v>
@@ -1263,13 +1243,13 @@
         <v>0.7</v>
       </c>
       <c r="H5">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="I5">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="J5">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K5">
         <v>0.89999999999999991</v>
@@ -1346,10 +1326,10 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="J6">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="K6">
         <v>1.4</v>
@@ -1423,7 +1403,7 @@
         <v>2</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="I7">
         <v>2.1</v>
@@ -1508,7 +1488,7 @@
   <dimension ref="A1:AJ10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="G9" sqref="G9:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1738,7 +1718,7 @@
         <v>-1.3162082288263517</v>
       </c>
       <c r="R3">
-        <v>-1.1107461083881807</v>
+        <v>-1.0107461083881799</v>
       </c>
       <c r="S3">
         <v>-0.55680333519324865</v>
@@ -1753,7 +1733,7 @@
         <v>-0.40775748017299157</v>
       </c>
       <c r="W3">
-        <v>-2.7810375039407682</v>
+        <v>-1.5037503940770001</v>
       </c>
       <c r="X3">
         <v>-1.0398768301777117</v>
@@ -1789,10 +1769,10 @@
         <v>-0.43316088187420954</v>
       </c>
       <c r="H4">
-        <v>-3.41</v>
+        <v>-2.41</v>
       </c>
       <c r="I4">
-        <v>-4.9216363642475081</v>
+        <v>-3.9216363642475098</v>
       </c>
       <c r="J4">
         <v>-2.2953879479458474</v>
@@ -1819,7 +1799,7 @@
         <v>-1.0489698248389139</v>
       </c>
       <c r="R4">
-        <v>-5.3413128981679501</v>
+        <v>-3.1816795</v>
       </c>
       <c r="S4">
         <v>-3.6267385960782161</v>
@@ -1834,7 +1814,7 @@
         <v>-0.48105833590121672</v>
       </c>
       <c r="W4">
-        <v>-2.4995409537546731</v>
+        <v>-2.0953754670000002</v>
       </c>
       <c r="X4">
         <v>-3.6415761581757633E-2</v>
@@ -2058,16 +2038,19 @@
       <c r="Z10" s="5"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:L2">
+    <sortCondition ref="C2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D74D64-A296-4AB8-B318-6B84CFC81D10}">
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2213,6 +2196,20 @@
         <v>100</v>
       </c>
     </row>
+    <row r="9" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>-10</v>
+      </c>
+      <c r="D9" s="8">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2220,10 +2217,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB44F85-5F13-4E40-BB24-6694A7B82B38}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2252,14 +2249,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>24</v>
@@ -2268,10 +2265,10 @@
         <v>18</v>
       </c>
       <c r="F2">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>3</v>
@@ -2282,10 +2279,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>24</v>
@@ -2297,14 +2294,11 @@
         <v>-600</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2316,7 +2310,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="R11" sqref="R11:S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2369,7 +2363,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="3">
-        <v>-10</v>
+        <v>80</v>
       </c>
       <c r="G2" s="3">
         <v>20000</v>
@@ -2392,7 +2386,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="3">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="G3" s="3">
         <v>100</v>
@@ -2415,7 +2409,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="3">
-        <v>-30</v>
+        <v>60</v>
       </c>
       <c r="G4" s="3">
         <v>100</v>
@@ -2438,7 +2432,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="3">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="G5" s="3">
         <v>50000</v>
@@ -2484,7 +2478,7 @@
         <v>17</v>
       </c>
       <c r="F7" s="3">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G7" s="3">
         <v>9000</v>
@@ -2497,10 +2491,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0660BF70-3B44-43C9-BAAF-3331A4D75E51}">
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2610,11 +2604,11 @@
       </c>
       <c r="G2" s="9">
         <f>SUM(re!H2:H5)</f>
-        <v>-5.1745132421523365</v>
+        <v>-4.1745132421523365</v>
       </c>
       <c r="H2" s="9">
         <f>SUM(re!I2:I5)</f>
-        <v>-5.6723209200285805</v>
+        <v>-4.6723209200285822</v>
       </c>
       <c r="I2" s="9">
         <f>SUM(re!J2:J5)</f>
@@ -2650,7 +2644,7 @@
       </c>
       <c r="Q2" s="9">
         <f>SUM(re!R2:R5)</f>
-        <v>-8.3219176802436525</v>
+        <v>-6.0622842820757015</v>
       </c>
       <c r="R2" s="9">
         <f>SUM(re!S2:S5)</f>
@@ -2670,7 +2664,7 @@
       </c>
       <c r="V2" s="9">
         <f>SUM(re!W2:W5)</f>
-        <v>-7.1572129591322504</v>
+        <v>-5.4757603625138094</v>
       </c>
       <c r="W2" s="9">
         <f>SUM(re!X2:X5)</f>
@@ -2691,99 +2685,99 @@
       </c>
       <c r="B3">
         <f>SUM(chp_max!$C:$C)</f>
-        <v>-9.6840000000000011</v>
+        <v>-19.684000000000001</v>
       </c>
       <c r="C3">
         <f>SUM(chp_max!$C:$C)</f>
-        <v>-9.6840000000000011</v>
+        <v>-19.684000000000001</v>
       </c>
       <c r="D3">
         <f>SUM(chp_max!$C:$C)</f>
-        <v>-9.6840000000000011</v>
+        <v>-19.684000000000001</v>
       </c>
       <c r="E3">
         <f>SUM(chp_max!$C:$C)</f>
-        <v>-9.6840000000000011</v>
+        <v>-19.684000000000001</v>
       </c>
       <c r="F3">
         <f>SUM(chp_max!$C:$C)</f>
-        <v>-9.6840000000000011</v>
+        <v>-19.684000000000001</v>
       </c>
       <c r="G3">
         <f>SUM(chp_max!$C:$C)</f>
-        <v>-9.6840000000000011</v>
+        <v>-19.684000000000001</v>
       </c>
       <c r="H3">
         <f>SUM(chp_max!$C:$C)</f>
-        <v>-9.6840000000000011</v>
+        <v>-19.684000000000001</v>
       </c>
       <c r="I3">
         <f>SUM(chp_max!$C:$C)</f>
-        <v>-9.6840000000000011</v>
+        <v>-19.684000000000001</v>
       </c>
       <c r="J3">
         <f>SUM(chp_max!$C:$C)</f>
-        <v>-9.6840000000000011</v>
+        <v>-19.684000000000001</v>
       </c>
       <c r="K3">
         <f>SUM(chp_max!$C:$C)</f>
-        <v>-9.6840000000000011</v>
+        <v>-19.684000000000001</v>
       </c>
       <c r="L3">
         <f>SUM(chp_max!$C:$C)</f>
-        <v>-9.6840000000000011</v>
+        <v>-19.684000000000001</v>
       </c>
       <c r="M3">
         <f>SUM(chp_max!$C:$C)</f>
-        <v>-9.6840000000000011</v>
+        <v>-19.684000000000001</v>
       </c>
       <c r="N3">
         <f>SUM(chp_max!$C:$C)</f>
-        <v>-9.6840000000000011</v>
+        <v>-19.684000000000001</v>
       </c>
       <c r="O3">
         <f>SUM(chp_max!$C:$C)</f>
-        <v>-9.6840000000000011</v>
+        <v>-19.684000000000001</v>
       </c>
       <c r="P3">
         <f>SUM(chp_max!$C:$C)</f>
-        <v>-9.6840000000000011</v>
+        <v>-19.684000000000001</v>
       </c>
       <c r="Q3">
         <f>SUM(chp_max!$C:$C)</f>
-        <v>-9.6840000000000011</v>
+        <v>-19.684000000000001</v>
       </c>
       <c r="R3">
         <f>SUM(chp_max!$C:$C)</f>
-        <v>-9.6840000000000011</v>
+        <v>-19.684000000000001</v>
       </c>
       <c r="S3">
         <f>SUM(chp_max!$C:$C)</f>
-        <v>-9.6840000000000011</v>
+        <v>-19.684000000000001</v>
       </c>
       <c r="T3">
         <f>SUM(chp_max!$C:$C)</f>
-        <v>-9.6840000000000011</v>
+        <v>-19.684000000000001</v>
       </c>
       <c r="U3">
         <f>SUM(chp_max!$C:$C)</f>
-        <v>-9.6840000000000011</v>
+        <v>-19.684000000000001</v>
       </c>
       <c r="V3">
         <f>SUM(chp_max!$C:$C)</f>
-        <v>-9.6840000000000011</v>
+        <v>-19.684000000000001</v>
       </c>
       <c r="W3">
         <f>SUM(chp_max!$C:$C)</f>
-        <v>-9.6840000000000011</v>
+        <v>-19.684000000000001</v>
       </c>
       <c r="X3">
         <f>SUM(chp_max!$C:$C)</f>
-        <v>-9.6840000000000011</v>
+        <v>-19.684000000000001</v>
       </c>
       <c r="Y3">
         <f>SUM(chp_max!$C:$C)</f>
-        <v>-9.6840000000000011</v>
+        <v>-19.684000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -2812,15 +2806,15 @@
       </c>
       <c r="G4">
         <f>SUM(loads!H2:H7)</f>
-        <v>5.7</v>
+        <v>6.1999999999999993</v>
       </c>
       <c r="H4">
         <f>SUM(loads!I2:I7)</f>
-        <v>6.5</v>
+        <v>6.6999999999999993</v>
       </c>
       <c r="I4">
         <f>SUM(loads!J2:J7)</f>
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="J4">
         <f>SUM(loads!K2:K7)</f>
@@ -2892,100 +2886,100 @@
         <v>25</v>
       </c>
       <c r="B6" s="9">
-        <f>B4-B2</f>
-        <v>7.1947352275241547</v>
+        <f>B4+B2</f>
+        <v>3.8052647724758453</v>
       </c>
       <c r="C6" s="9">
-        <f t="shared" ref="C6:Y6" si="0">C4-C2</f>
-        <v>8.9868258604181896</v>
+        <f t="shared" ref="C6:Y6" si="0">C4+C2</f>
+        <v>2.0131741395818095</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
-        <v>8.4539052019830159</v>
+        <v>2.546094798016985</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="0"/>
-        <v>8.9670411398063905</v>
+        <v>2.0329588601936104</v>
       </c>
       <c r="F6" s="9">
         <f t="shared" si="0"/>
-        <v>8.6668372848153687</v>
+        <v>2.5331627151846314</v>
       </c>
       <c r="G6" s="9">
         <f t="shared" si="0"/>
-        <v>10.874513242152336</v>
+        <v>2.0254867578476627</v>
       </c>
       <c r="H6" s="9">
         <f t="shared" si="0"/>
-        <v>12.17232092002858</v>
+        <v>2.0276790799714171</v>
       </c>
       <c r="I6" s="9">
         <f t="shared" si="0"/>
-        <v>11.554886538550296</v>
+        <v>2.1451134614497036</v>
       </c>
       <c r="J6" s="9">
         <f t="shared" si="0"/>
-        <v>8.8614692437708857</v>
+        <v>5.1385307562291143</v>
       </c>
       <c r="K6" s="9">
         <f t="shared" si="0"/>
-        <v>10.653876269384405</v>
+        <v>5.3461237306155951</v>
       </c>
       <c r="L6" s="9">
         <f t="shared" si="0"/>
-        <v>15.124296797675264</v>
+        <v>2.8757032023247353</v>
       </c>
       <c r="M6" s="9">
         <f t="shared" si="0"/>
-        <v>11.678566827365785</v>
+        <v>7.9214331726342166</v>
       </c>
       <c r="N6" s="9">
         <f t="shared" si="0"/>
-        <v>13.302600311889382</v>
+        <v>7.0973996881106167</v>
       </c>
       <c r="O6" s="9">
         <f t="shared" si="0"/>
-        <v>12.059512824540796</v>
+        <v>9.3404871754592023</v>
       </c>
       <c r="P6" s="9">
         <f t="shared" si="0"/>
-        <v>14.682319626263141</v>
+        <v>7.7176803737368571</v>
       </c>
       <c r="Q6" s="9">
         <f t="shared" si="0"/>
-        <v>19.621917680243655</v>
+        <v>5.2377157179242992</v>
       </c>
       <c r="R6" s="9">
         <f t="shared" si="0"/>
-        <v>17.019892249703744</v>
+        <v>5.7801077502962555</v>
       </c>
       <c r="S6" s="9">
         <f t="shared" si="0"/>
-        <v>16.694520783090915</v>
+        <v>8.3054792169090863</v>
       </c>
       <c r="T6" s="9">
         <f t="shared" si="0"/>
-        <v>14.46034289485597</v>
+        <v>8.1396571051440318</v>
       </c>
       <c r="U6" s="9">
         <f t="shared" si="0"/>
-        <v>11.564127194226652</v>
+        <v>8.8358728057733469</v>
       </c>
       <c r="V6" s="9">
         <f t="shared" si="0"/>
-        <v>16.25721295913225</v>
+        <v>3.6242396374861903</v>
       </c>
       <c r="W6" s="9">
         <f t="shared" si="0"/>
-        <v>10.066507514612303</v>
+        <v>5.9334924853876974</v>
       </c>
       <c r="X6" s="9">
         <f t="shared" si="0"/>
-        <v>8.9222485758581787</v>
+        <v>4.8777514241418221</v>
       </c>
       <c r="Y6" s="9">
         <f t="shared" si="0"/>
-        <v>6.7834587359427996</v>
+        <v>4.8165412640572001</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -2998,100 +2992,100 @@
         <v>26</v>
       </c>
       <c r="B8" s="9">
-        <f>B6-B3</f>
-        <v>16.878735227524157</v>
+        <f>B6+B3</f>
+        <v>-15.878735227524157</v>
       </c>
       <c r="C8" s="9">
-        <f t="shared" ref="C8:Y8" si="1">C6-C3</f>
-        <v>18.670825860418191</v>
+        <f t="shared" ref="C8:Y8" si="1">C6+C3</f>
+        <v>-17.670825860418191</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="1"/>
-        <v>18.137905201983017</v>
+        <v>-17.137905201983017</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="1"/>
-        <v>18.651041139806392</v>
+        <v>-17.651041139806392</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" si="1"/>
-        <v>18.35083728481537</v>
+        <v>-17.150837284815371</v>
       </c>
       <c r="G8" s="9">
         <f t="shared" si="1"/>
-        <v>20.558513242152337</v>
+        <v>-17.658513242152338</v>
       </c>
       <c r="H8" s="9">
         <f t="shared" si="1"/>
-        <v>21.85632092002858</v>
+        <v>-17.656320920028584</v>
       </c>
       <c r="I8" s="9">
         <f t="shared" si="1"/>
-        <v>21.238886538550297</v>
+        <v>-17.538886538550297</v>
       </c>
       <c r="J8" s="9">
         <f t="shared" si="1"/>
-        <v>18.545469243770889</v>
+        <v>-14.545469243770887</v>
       </c>
       <c r="K8" s="9">
         <f t="shared" si="1"/>
-        <v>20.337876269384406</v>
+        <v>-14.337876269384406</v>
       </c>
       <c r="L8" s="9">
         <f t="shared" si="1"/>
-        <v>24.808296797675265</v>
+        <v>-16.808296797675265</v>
       </c>
       <c r="M8" s="9">
         <f t="shared" si="1"/>
-        <v>21.362566827365786</v>
+        <v>-11.762566827365784</v>
       </c>
       <c r="N8" s="9">
         <f t="shared" si="1"/>
-        <v>22.986600311889383</v>
+        <v>-12.586600311889384</v>
       </c>
       <c r="O8" s="9">
         <f t="shared" si="1"/>
-        <v>21.743512824540797</v>
+        <v>-10.343512824540799</v>
       </c>
       <c r="P8" s="9">
         <f t="shared" si="1"/>
-        <v>24.366319626263142</v>
+        <v>-11.966319626263143</v>
       </c>
       <c r="Q8" s="9">
         <f t="shared" si="1"/>
-        <v>29.305917680243656</v>
+        <v>-14.446284282075702</v>
       </c>
       <c r="R8" s="9">
         <f t="shared" si="1"/>
-        <v>26.703892249703745</v>
+        <v>-13.903892249703745</v>
       </c>
       <c r="S8" s="9">
         <f t="shared" si="1"/>
-        <v>26.378520783090917</v>
+        <v>-11.378520783090915</v>
       </c>
       <c r="T8" s="9">
         <f t="shared" si="1"/>
-        <v>24.144342894855971</v>
+        <v>-11.544342894855969</v>
       </c>
       <c r="U8" s="9">
         <f t="shared" si="1"/>
-        <v>21.248127194226655</v>
+        <v>-10.848127194226654</v>
       </c>
       <c r="V8" s="9">
         <f t="shared" si="1"/>
-        <v>25.941212959132251</v>
+        <v>-16.05976036251381</v>
       </c>
       <c r="W8" s="9">
         <f t="shared" si="1"/>
-        <v>19.750507514612302</v>
+        <v>-13.750507514612304</v>
       </c>
       <c r="X8" s="9">
         <f t="shared" si="1"/>
-        <v>18.606248575858181</v>
+        <v>-14.806248575858179</v>
       </c>
       <c r="Y8" s="9">
         <f t="shared" si="1"/>
-        <v>16.467458735942799</v>
+        <v>-14.867458735942801</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
@@ -3099,15 +3093,41 @@
         <v>27</v>
       </c>
     </row>
+    <row r="26" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>24</v>
+      </c>
+      <c r="M26" t="s">
+        <v>18</v>
+      </c>
+      <c r="N26">
+        <v>-400</v>
+      </c>
+      <c r="O26">
+        <v>50</v>
+      </c>
+      <c r="P26" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B6:Y6">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>"&lt;0"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/NL_bus_input2.xlsx
+++ b/NL_bus_input2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\304723\Documents\GitHub\CBC_RD_thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461D1285-F580-44D0-B84A-90012FE1A619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E91A17-5AF1-448B-8219-D05CFB128079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="2" xr2:uid="{4D1B5A0D-1CEB-45D9-8796-95763D14CA6B}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11325" activeTab="6" xr2:uid="{4D1B5A0D-1CEB-45D9-8796-95763D14CA6B}"/>
   </bookViews>
   <sheets>
     <sheet name="title_page" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
   <si>
     <t>Info &amp; case description</t>
   </si>
@@ -889,7 +889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F09800-6293-4D04-974E-A2660D60FC26}">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -2307,10 +2307,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A915C1-4CB9-4DD7-B6E4-10F8FAF3EAA1}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R11" sqref="R11:S13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2326,7 +2326,7 @@
     <col min="9" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
@@ -2345,8 +2345,11 @@
       <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -2368,8 +2371,11 @@
       <c r="G2" s="3">
         <v>20000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2391,8 +2397,11 @@
       <c r="G3" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -2414,8 +2423,11 @@
       <c r="G4" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -2437,8 +2449,11 @@
       <c r="G5" s="3">
         <v>50000</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -2460,8 +2475,11 @@
       <c r="G6" s="3">
         <v>9000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -2482,6 +2500,9 @@
       </c>
       <c r="G7" s="3">
         <v>9000</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
